--- a/reporting/processed_output_Test_SO1.xlsx
+++ b/reporting/processed_output_Test_SO1.xlsx
@@ -344,37 +344,37 @@
     <t>202205</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>FFFF-BBBB</t>
+  </si>
+  <si>
+    <t>SAAS IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>FFFF-CCC</t>
+  </si>
+  <si>
+    <t>SAAS PREMIUM SUBSCRIPTION</t>
+  </si>
+  <si>
+    <t>FFFF-AAAA</t>
+  </si>
+  <si>
+    <t>SAAS BASIC SUBSCRIPTION</t>
+  </si>
+  <si>
     <t>IDHJ-EGNY</t>
   </si>
   <si>
     <t>DISCOUNT</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>INVOICE</t>
-  </si>
-  <si>
-    <t>FFFF-AAAA</t>
-  </si>
-  <si>
-    <t>SAAS BASIC SUBSCRIPTION</t>
-  </si>
-  <si>
-    <t>FFFF-BBBB</t>
-  </si>
-  <si>
-    <t>SAAS IMPLEMENTATION</t>
-  </si>
-  <si>
-    <t>FFFF-CCC</t>
-  </si>
-  <si>
-    <t>SAAS PREMIUM SUBSCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -885,6 +885,10 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -894,10 +898,6 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1233,7 +1233,7 @@
         <v>44681.0</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1416,44 +1416,44 @@
       <c r="B2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="111" t="n">
+      <c r="C2" s="102" t="n">
         <v>44681.0</v>
       </c>
-      <c r="D2" s="109" t="n">
+      <c r="D2" s="100" t="n">
         <v>44576.0</v>
       </c>
       <c r="E2" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F2" s="110" t="n">
+      <c r="F2" s="101" t="n">
         <v>44576.0</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="n" s="108">
+        <v>106</v>
+      </c>
+      <c r="H2" t="n" s="99">
         <v>0.0</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,44 +1463,44 @@
       <c r="B3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="n">
+      <c r="C3" s="136" t="n">
         <v>44681.0</v>
       </c>
-      <c r="D3" s="102" t="n">
+      <c r="D3" s="133" t="n">
         <v>44576.0</v>
       </c>
       <c r="E3" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F3" s="103" t="n">
+      <c r="F3" s="134" t="n">
         <v>44576.0</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="n" s="100">
+        <v>114</v>
+      </c>
+      <c r="H3" t="n" s="131">
         <v>1.0</v>
       </c>
-      <c r="I3" s="101" t="n">
+      <c r="I3" s="132" t="n">
         <v>-200.0</v>
       </c>
-      <c r="J3" s="104" t="n">
+      <c r="J3" s="135" t="n">
         <v>1.0</v>
       </c>
-      <c r="K3" s="107" t="n">
+      <c r="K3" s="138" t="n">
         <v>-200.0</v>
       </c>
-      <c r="L3" s="106" t="n">
+      <c r="L3" s="137" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M3" s="99" t="n">
+      <c r="M3" s="130" t="n">
         <v>44576.0</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>107</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,44 +1510,44 @@
       <c r="B4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="118" t="n">
+      <c r="C4" s="127" t="n">
         <v>44681.0</v>
       </c>
-      <c r="D4" s="115" t="n">
+      <c r="D4" s="124" t="n">
         <v>44576.0</v>
       </c>
       <c r="E4" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F4" s="116" t="n">
+      <c r="F4" s="125" t="n">
         <v>44576.0</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" t="n" s="113">
+        <v>112</v>
+      </c>
+      <c r="H4" t="n" s="122">
         <v>2.0</v>
       </c>
-      <c r="I4" s="114" t="n">
+      <c r="I4" s="123" t="n">
         <v>100.0</v>
       </c>
-      <c r="J4" s="117" t="n">
+      <c r="J4" s="126" t="n">
         <v>12.0</v>
       </c>
-      <c r="K4" s="120" t="n">
+      <c r="K4" s="129" t="n">
         <v>1200.0</v>
       </c>
-      <c r="L4" s="119" t="n">
+      <c r="L4" s="128" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M4" s="112" t="n">
+      <c r="M4" s="121" t="n">
         <v>44941.0</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>107</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,44 +1557,44 @@
       <c r="B5" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="127" t="n">
+      <c r="C5" s="109" t="n">
         <v>44681.0</v>
       </c>
-      <c r="D5" s="124" t="n">
+      <c r="D5" s="106" t="n">
         <v>44576.0</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F5" s="125" t="n">
+      <c r="F5" s="107" t="n">
         <v>44576.0</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" t="n" s="122">
+        <v>108</v>
+      </c>
+      <c r="H5" t="n" s="104">
         <v>3.0</v>
       </c>
-      <c r="I5" s="123" t="n">
+      <c r="I5" s="105" t="n">
         <v>300.0</v>
       </c>
-      <c r="J5" s="126" t="n">
+      <c r="J5" s="108" t="n">
         <v>1.0</v>
       </c>
-      <c r="K5" s="129" t="n">
+      <c r="K5" s="111" t="n">
         <v>300.0</v>
       </c>
-      <c r="L5" s="128" t="n">
+      <c r="L5" s="110" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M5" s="121" t="n">
+      <c r="M5" s="103" t="n">
         <v>44576.0</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>107</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,44 +1604,44 @@
       <c r="B6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="136" t="n">
+      <c r="C6" s="118" t="n">
         <v>44681.0</v>
       </c>
-      <c r="D6" s="133" t="n">
+      <c r="D6" s="115" t="n">
         <v>44576.0</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F6" s="134" t="n">
+      <c r="F6" s="116" t="n">
         <v>44576.0</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="n" s="131">
+        <v>110</v>
+      </c>
+      <c r="H6" t="n" s="113">
         <v>5.0</v>
       </c>
-      <c r="I6" s="132" t="n">
+      <c r="I6" s="114" t="n">
         <v>50.0</v>
       </c>
-      <c r="J6" s="135" t="n">
+      <c r="J6" s="117" t="n">
         <v>24.0</v>
       </c>
-      <c r="K6" s="138" t="n">
+      <c r="K6" s="120" t="n">
         <v>1200.0</v>
       </c>
-      <c r="L6" s="137" t="n">
+      <c r="L6" s="119" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M6" s="130" t="n">
+      <c r="M6" s="112" t="n">
         <v>44941.0</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>107</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,7 +1721,7 @@
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n" s="81">
+      <c r="C2" t="n" s="77">
         <v>44712.0</v>
       </c>
       <c r="D2" t="s">
@@ -1730,13 +1730,13 @@
       <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="n" s="79">
+      <c r="F2" t="n" s="75">
         <v>1900.0</v>
       </c>
-      <c r="G2" t="n" s="82">
+      <c r="G2" t="n" s="78">
         <v>600.0</v>
       </c>
-      <c r="H2" t="n" s="80">
+      <c r="H2" t="n" s="76">
         <v>2500.0</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n" s="77">
+      <c r="C4" t="n" s="81">
         <v>44712.0</v>
       </c>
       <c r="D4" t="s">
@@ -1782,13 +1782,13 @@
       <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="F4" t="n" s="75">
+      <c r="F4" t="n" s="79">
         <v>1900.0</v>
       </c>
-      <c r="G4" t="n" s="78">
+      <c r="G4" t="n" s="82">
         <v>600.0</v>
       </c>
-      <c r="H4" s="76" t="n">
+      <c r="H4" s="80" t="n">
         <v>2500.0</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n" s="89">
+      <c r="C6" t="n" s="97">
         <v>44712.0</v>
       </c>
       <c r="D6" t="s">
@@ -1816,14 +1816,14 @@
       <c r="E6" t="s">
         <v>104</v>
       </c>
-      <c r="F6" t="n" s="87">
-        <v>-319.6347</v>
-      </c>
-      <c r="G6" t="n" s="90">
+      <c r="F6" t="n" s="95">
+        <v>-312.3288</v>
+      </c>
+      <c r="G6" t="n" s="98">
         <v>0.0</v>
       </c>
-      <c r="H6" t="n" s="88">
-        <v>-319.6347</v>
+      <c r="H6" t="n" s="96">
+        <v>-312.3288</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,7 +1833,7 @@
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n" s="93">
+      <c r="C7" t="n" s="89">
         <v>44712.0</v>
       </c>
       <c r="D7" t="s">
@@ -1842,14 +1842,14 @@
       <c r="E7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="n" s="91">
-        <v>-277.7778</v>
-      </c>
-      <c r="G7" t="n" s="94">
+      <c r="F7" t="n" s="87">
+        <v>-271.4286</v>
+      </c>
+      <c r="G7" t="n" s="90">
         <v>0.0</v>
       </c>
-      <c r="H7" t="n" s="92">
-        <v>-277.7778</v>
+      <c r="H7" t="n" s="88">
+        <v>-271.4286</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,7 +1859,7 @@
       <c r="B8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n" s="97">
+      <c r="C8" t="n" s="93">
         <v>44712.0</v>
       </c>
       <c r="D8" t="s">
@@ -1868,14 +1868,14 @@
       <c r="E8" t="s">
         <v>104</v>
       </c>
-      <c r="F8" t="n" s="95">
-        <v>-319.6347</v>
-      </c>
-      <c r="G8" t="n" s="98">
+      <c r="F8" t="n" s="91">
+        <v>-156.1644</v>
+      </c>
+      <c r="G8" t="n" s="94">
         <v>0.0</v>
       </c>
-      <c r="H8" t="n" s="96">
-        <v>-319.6347</v>
+      <c r="H8" t="n" s="92">
+        <v>-156.1644</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D21" s="35" t="n">
         <f aca="false">IF(A21="","",i_Metric!$H6)</f>
-        <v>-319.6347</v>
+        <v>-312.3288</v>
       </c>
       <c r="E21" s="35" t="n">
         <f aca="false">IF(A21="","",0)</f>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D22" s="35" t="n">
         <f aca="false">IF(A22="","",i_Metric!$H7)</f>
-        <v>-277.7778</v>
+        <v>-271.4286</v>
       </c>
       <c r="E22" s="35" t="n">
         <f aca="false">IF(A22="","",0)</f>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="D23" s="35" t="n">
         <f aca="false">IF(A23="","",i_Metric!$H8)</f>
-        <v>-319.6347</v>
+        <v>-156.1644</v>
       </c>
       <c r="E23" s="35" t="n">
         <f aca="false">IF(A23="","",0)</f>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="D25" s="35" t="n">
         <f aca="false">SUM(D19:D24)</f>
-        <v>-917.0472</v>
+        <v>-739.9218</v>
       </c>
       <c r="E25" s="35" t="n">
         <f aca="false">SUM(E19:E24)</f>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="F37" s="37" t="n">
         <f aca="false">IF(B37="","",SUM(C37:E42))</f>
-        <v>2911.263333942162</v>
+        <v>2734.137933942162</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="D39" s="35" t="n">
         <f aca="false">IF(B39="","",D31-D21)</f>
-        <v>-94.36834414003039</v>
+        <v>-101.6742441400304</v>
       </c>
       <c r="E39" s="35" t="n">
         <f aca="false">IF(A39="","",0)</f>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="D40" s="35" t="n">
         <f aca="false">IF(B40="","",D32-D22)</f>
-        <v>2.2222222526124824E-5</v>
+        <v>-6.34917777777747</v>
       </c>
       <c r="E40" s="35" t="n">
         <f aca="false">IF(A40="","",0)</f>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="D41" s="35" t="n">
         <f aca="false">IF(B41="","",D33-D23)</f>
-        <v>-94.36834414003039</v>
+        <v>-257.8386441400304</v>
       </c>
       <c r="E41" s="35" t="n">
         <f aca="false">IF(A41="","",0)</f>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E47" s="35" t="n">
         <f aca="false">IF(D47="Revenue",D39,"")</f>
-        <v>-94.36834414003039</v>
+        <v>-101.6742441400304</v>
       </c>
       <c r="F47" s="11" t="n">
         <f aca="false">IF(A47="","",A39)</f>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E48" s="35" t="n">
         <f aca="false">IF(D48="Revenue",D40,"")</f>
-        <v>2.2222222526124824E-5</v>
+        <v>-6.34917777777747</v>
       </c>
       <c r="F48" s="11" t="n">
         <f aca="false">IF(A48="","",A40)</f>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="E49" s="35" t="n">
         <f aca="false">IF(D49="Revenue",D41,"")</f>
-        <v>-94.36834414003039</v>
+        <v>-257.8386441400304</v>
       </c>
       <c r="F49" s="11" t="n">
         <f aca="false">IF(A49="","",A41)</f>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="E3" s="71" t="n">
         <f aca="false">IF(A3="","",RevRec_Calc!E47)</f>
-        <v>-94.36834414003039</v>
+        <v>-101.6742441400304</v>
       </c>
       <c r="F3" s="9" t="n">
         <f aca="false">IF(A3="","",RevRec_Calc!F47)</f>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="E4" s="71" t="n">
         <f aca="false">IF(A4="","",RevRec_Calc!E48)</f>
-        <v>2.2222222526124824E-5</v>
+        <v>-6.34917777777747</v>
       </c>
       <c r="F4" s="9" t="n">
         <f aca="false">IF(A4="","",RevRec_Calc!F48)</f>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="E5" s="71" t="n">
         <f aca="false">IF(A5="","",RevRec_Calc!E49)</f>
-        <v>-94.36834414003039</v>
+        <v>-257.8386441400304</v>
       </c>
       <c r="F5" s="9" t="n">
         <f aca="false">IF(A5="","",RevRec_Calc!F49)</f>
